--- a/biology/Botanique/Saint-Nicolas_(pomme)/Saint-Nicolas_(pomme).xlsx
+++ b/biology/Botanique/Saint-Nicolas_(pomme)/Saint-Nicolas_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le "Saint-Nicolas " est un cultivar ancien de pommier domestique retenu pour la fabrication du cidre.
 </t>
@@ -511,10 +523,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pas de synonyme connu.
-Ne pas confondre avec une autre Saint-Nicolas, connue dans l'Est de la France :  Christkindel, Pomme de Noël, Santa Klauss ou Christkindler[1].</t>
+Ne pas confondre avec une autre Saint-Nicolas, connue dans l'Est de la France :  Christkindel, Pomme de Noël, Santa Klauss ou Christkindler.</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette variété de pomme d'origine ancienne est revendiquée par la Haute-Normandie.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pomme à cidre de deuxième saison. 
 Catégorie amère. 
@@ -586,7 +604,7 @@
 Coupe verticale :  l’œil descend très profondément. Le cœur, peu irrégulier , est moyen plutôt que large, délimité par des courbes symétriques, émergeant à angle droit ou autrement. 
 Loges petites, étroites.
 Coupe transversale : circonférence irrégulière, quatre à cinq saillies. Faisceaux sépalaires et pétalaires non anastomosés.
-Qualité : pulpe blanc-jaunâtre, ferme, amère, parfumée. Jus assez coloré. Excellente variété[2].
+Qualité : pulpe blanc-jaunâtre, ferme, amère, parfumée. Jus assez coloré. Excellente variété.
 </t>
         </is>
       </c>
